--- a/PCB/production/main_3.2/ProGCC 3.2 BOM Wired and Wireless.xlsx
+++ b/PCB/production/main_3.2/ProGCC 3.2 BOM Wired and Wireless.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="210">
   <si>
     <t>NO</t>
   </si>
@@ -182,7 +182,7 @@
     <t>C9,C10,C11,C12</t>
   </si>
   <si>
-    <t>CC0603JRX7R9BB473</t>
+    <t>TAJA476K006RNJ</t>
   </si>
   <si>
     <t>50V 47nF X7R ±5% 0603</t>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>C16</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB473</t>
   </si>
   <si>
     <t>47uF 6.3V 1.6Ω@100kHz ±10%</t>
@@ -446,13 +449,7 @@
     <t>C106227</t>
   </si>
   <si>
-    <t>R27,R28</t>
-  </si>
-  <si>
-    <t>R37,R41</t>
-  </si>
-  <si>
-    <t>50mW Thick Film Resistors 25V ±1% 0Ω</t>
+    <t>R27,R28,R37,R41</t>
   </si>
   <si>
     <t>R29,R30</t>
@@ -639,6 +636,12 @@
   </si>
   <si>
     <t>C412366</t>
+  </si>
+  <si>
+    <t>R1,R2,R4,R38,R37,R41</t>
+  </si>
+  <si>
+    <t>R27,R28</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1047,7 @@
     <col customWidth="1" min="2" max="2" width="27.57"/>
     <col customWidth="1" min="3" max="3" width="12.0"/>
     <col customWidth="1" min="4" max="4" width="28.57"/>
-    <col customWidth="1" min="5" max="5" width="42.86"/>
+    <col customWidth="1" min="5" max="5" width="52.0"/>
     <col customWidth="1" min="6" max="6" width="13.43"/>
     <col customWidth="1" min="7" max="7" width="21.43"/>
     <col customWidth="1" min="8" max="8" width="17.0"/>
@@ -1186,7 +1189,7 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3.0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1231,7 +1234,7 @@
       <c r="AA4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4.0</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1276,7 +1279,7 @@
       <c r="AA5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1321,7 +1324,7 @@
       <c r="AA6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6.0</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1366,7 +1369,7 @@
       <c r="AA7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7.0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1411,7 +1414,7 @@
       <c r="AA8" s="17"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8.0</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1456,7 +1459,7 @@
       <c r="AA9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9.0</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1501,7 +1504,7 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10.0</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1546,7 +1549,7 @@
       <c r="AA11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11.0</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1591,7 +1594,7 @@
       <c r="AA12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12.0</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1601,20 +1604,20 @@
         <v>1.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="23"/>
@@ -1636,30 +1639,30 @@
       <c r="AA13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="10">
         <v>1.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="23"/>
@@ -1681,30 +1684,30 @@
       <c r="AA14" s="22"/>
     </row>
     <row r="15">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10">
         <v>13.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="9">
         <v>201.0</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="23"/>
@@ -1726,30 +1729,30 @@
       <c r="AA15" s="22"/>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="9">
         <v>15.0</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="24">
         <v>4.0</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="24">
         <v>201.0</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="28"/>
@@ -1771,30 +1774,30 @@
       <c r="AA16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="24">
+      <c r="A17" s="9">
         <v>16.0</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="24">
         <v>2.0</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="24">
         <v>805.0</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="28"/>
@@ -1816,30 +1819,30 @@
       <c r="AA17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="9">
         <v>17.0</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="24">
         <v>2.0</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="24">
         <v>805.0</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="28"/>
@@ -1861,30 +1864,30 @@
       <c r="AA18" s="29"/>
     </row>
     <row r="19">
-      <c r="A19" s="24">
+      <c r="A19" s="9">
         <v>18.0</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="24">
         <v>3.0</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="G19" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="30"/>
@@ -1906,30 +1909,30 @@
       <c r="AA19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24">
+      <c r="A20" s="9">
         <v>19.0</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="24">
         <v>1.0</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="G20" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="30"/>
@@ -1951,30 +1954,30 @@
       <c r="AA20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24">
+      <c r="A21" s="9">
         <v>20.0</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="24">
         <v>1.0</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="G21" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="30"/>
@@ -1996,30 +1999,30 @@
       <c r="AA21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="9">
         <v>21.0</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="24">
         <v>1.0</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="30"/>
@@ -2041,26 +2044,26 @@
       <c r="AA22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="9">
         <v>22.0</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="24">
         <v>2.0</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="G23" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="32"/>
@@ -2084,30 +2087,30 @@
       <c r="AA23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="9">
         <v>23.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="15">
         <v>3.0</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="15">
         <v>201.0</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="23"/>
@@ -2129,30 +2132,30 @@
       <c r="AA24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="9">
         <v>24.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="15">
         <v>5.0</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="15">
         <v>201.0</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="23"/>
@@ -2174,30 +2177,30 @@
       <c r="AA25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="9">
         <v>25.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="15">
         <v>2.0</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="23"/>
@@ -2219,30 +2222,30 @@
       <c r="AA26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="9">
         <v>26.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="15">
         <v>2.0</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="23"/>
@@ -2264,30 +2267,30 @@
       <c r="AA27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="9">
         <v>27.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="15">
         <v>1.0</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="15">
         <v>1008.0</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="23"/>
@@ -2309,30 +2312,30 @@
       <c r="AA28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="9">
         <v>28.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="15">
         <v>2.0</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="G29" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="23"/>
@@ -2354,30 +2357,30 @@
       <c r="AA29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="9">
         <v>29.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="15">
         <v>2.0</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>130</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="23"/>
@@ -2399,30 +2402,30 @@
       <c r="AA30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="9">
         <v>30.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="15">
         <v>1.0</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="23"/>
@@ -2444,30 +2447,30 @@
       <c r="AA31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="9">
         <v>31.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="15">
         <v>4.0</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="15">
         <v>201.0</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>9</v>
@@ -2491,30 +2494,30 @@
       <c r="AA32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="9">
         <v>32.0</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="15">
-        <v>2.0</v>
+      <c r="B33" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="24">
+        <v>4.0</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="33" t="s">
         <v>141</v>
       </c>
+      <c r="E33" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="F33" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="15">
         <v>201.0</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="23"/>
@@ -2536,30 +2539,30 @@
       <c r="AA33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="9">
         <v>33.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" s="15">
         <v>2.0</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G34" s="15">
         <v>201.0</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="23"/>
@@ -2581,30 +2584,30 @@
       <c r="AA34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="9">
         <v>34.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C35" s="15">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G35" s="15">
         <v>201.0</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="23"/>
@@ -2626,33 +2629,33 @@
       <c r="AA35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="9">
         <v>35.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C36" s="15">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G36" s="15">
         <v>201.0</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J36" s="13"/>
-      <c r="K36" s="23"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -2671,30 +2674,30 @@
       <c r="AA36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="9">
         <v>36.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C37" s="15">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G37" s="15">
         <v>201.0</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="22"/>
@@ -2716,30 +2719,30 @@
       <c r="AA37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="9">
         <v>37.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C38" s="15">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G38" s="15">
         <v>201.0</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="22"/>
@@ -2761,30 +2764,30 @@
       <c r="AA38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="9">
         <v>38.0</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="F39" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="G39" s="15">
         <v>201.0</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="22"/>
@@ -2806,30 +2809,30 @@
       <c r="AA39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="15">
+      <c r="A40" s="9">
         <v>39.0</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C40" s="15">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G40" s="15">
         <v>201.0</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="22"/>
@@ -2851,30 +2854,30 @@
       <c r="AA40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="9">
         <v>40.0</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C41" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="15">
-        <v>201.0</v>
+        <v>178</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="22"/>
@@ -2896,30 +2899,32 @@
       <c r="AA41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="15">
+      <c r="A42" s="9">
         <v>41.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C42" s="15">
         <v>1.0</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="I42" s="19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="22"/>
@@ -2941,33 +2946,31 @@
       <c r="AA42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="9">
         <v>42.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C43" s="15">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="I43" s="14"/>
       <c r="J43" s="13"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -2988,31 +2991,31 @@
       <c r="AA43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="9">
         <v>43.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="15">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="J44" s="13"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -3033,30 +3036,30 @@
       <c r="AA44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="9">
         <v>44.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C45" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="22"/>
@@ -3078,30 +3081,30 @@
       <c r="AA45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="15">
+      <c r="A46" s="9">
         <v>45.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C46" s="15">
         <v>1.0</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="22"/>
@@ -3123,32 +3126,16 @@
       <c r="AA46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="15">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J47" s="13"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -30745,35 +30732,6 @@
       <c r="Y998" s="22"/>
       <c r="Z998" s="22"/>
       <c r="AA998" s="22"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="17"/>
-      <c r="B999" s="17"/>
-      <c r="C999" s="17"/>
-      <c r="D999" s="17"/>
-      <c r="E999" s="34"/>
-      <c r="F999" s="17"/>
-      <c r="G999" s="17"/>
-      <c r="H999" s="17"/>
-      <c r="I999" s="35"/>
-      <c r="J999" s="17"/>
-      <c r="K999" s="22"/>
-      <c r="L999" s="22"/>
-      <c r="M999" s="22"/>
-      <c r="N999" s="22"/>
-      <c r="O999" s="22"/>
-      <c r="P999" s="22"/>
-      <c r="Q999" s="22"/>
-      <c r="R999" s="22"/>
-      <c r="S999" s="22"/>
-      <c r="T999" s="22"/>
-      <c r="U999" s="22"/>
-      <c r="V999" s="22"/>
-      <c r="W999" s="22"/>
-      <c r="X999" s="22"/>
-      <c r="Y999" s="22"/>
-      <c r="Z999" s="22"/>
-      <c r="AA999" s="22"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -30946,7 +30904,7 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3.0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -30991,7 +30949,7 @@
       <c r="AA4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4.0</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -31038,7 +30996,7 @@
       <c r="AA5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -31083,7 +31041,7 @@
       <c r="AA6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6.0</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -31130,7 +31088,7 @@
       <c r="AA7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7.0</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -31175,7 +31133,7 @@
       <c r="AA8" s="17"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8.0</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -31222,7 +31180,7 @@
       <c r="AA9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9.0</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -31267,7 +31225,7 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10.0</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -31312,7 +31270,7 @@
       <c r="AA11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11.0</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -31322,7 +31280,7 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>57</v>
@@ -31357,7 +31315,7 @@
       <c r="AA12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12.0</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -31370,17 +31328,17 @@
         <v>56</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="23"/>
@@ -31402,30 +31360,30 @@
       <c r="AA13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="10">
         <v>1.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>9</v>
@@ -31449,30 +31407,30 @@
       <c r="AA14" s="22"/>
     </row>
     <row r="15">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10">
         <v>13.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="9">
         <v>201.0</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="23"/>
@@ -31494,30 +31452,30 @@
       <c r="AA15" s="22"/>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="9">
         <v>15.0</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="24">
         <v>4.0</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="24">
         <v>201.0</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>9</v>
@@ -31541,30 +31499,30 @@
       <c r="AA16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="24">
+      <c r="A17" s="9">
         <v>16.0</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="24">
         <v>2.0</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="24">
         <v>805.0</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>9</v>
@@ -31588,30 +31546,30 @@
       <c r="AA17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="9">
         <v>17.0</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="24">
         <v>2.0</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="24">
         <v>805.0</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="28"/>
@@ -31633,30 +31591,30 @@
       <c r="AA18" s="29"/>
     </row>
     <row r="19">
-      <c r="A19" s="24">
+      <c r="A19" s="9">
         <v>18.0</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="24">
         <v>3.0</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="G19" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="30"/>
@@ -31678,30 +31636,30 @@
       <c r="AA19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24">
+      <c r="A20" s="9">
         <v>19.0</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="24">
         <v>1.0</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="G20" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>9</v>
@@ -31725,30 +31683,30 @@
       <c r="AA20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24">
+      <c r="A21" s="9">
         <v>20.0</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="24">
         <v>1.0</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="G21" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>9</v>
@@ -31772,30 +31730,30 @@
       <c r="AA21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="9">
         <v>21.0</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="24">
         <v>1.0</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="30"/>
@@ -31817,26 +31775,26 @@
       <c r="AA22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="9">
         <v>22.0</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="24">
         <v>2.0</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="G23" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="32"/>
@@ -31860,30 +31818,30 @@
       <c r="AA23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="9">
         <v>23.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="15">
         <v>3.0</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="15">
         <v>201.0</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>9</v>
@@ -31907,30 +31865,30 @@
       <c r="AA24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="9">
         <v>24.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="15">
         <v>5.0</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="15">
         <v>201.0</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="23"/>
@@ -31952,30 +31910,30 @@
       <c r="AA25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="9">
         <v>25.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="15">
         <v>2.0</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="23"/>
@@ -31997,30 +31955,30 @@
       <c r="AA26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="9">
         <v>26.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="15">
         <v>2.0</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="23"/>
@@ -32042,30 +32000,30 @@
       <c r="AA27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="9">
         <v>27.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="15">
         <v>1.0</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="15">
         <v>1008.0</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="23"/>
@@ -32087,30 +32045,30 @@
       <c r="AA28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="9">
         <v>28.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="15">
         <v>2.0</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="G29" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="23"/>
@@ -32132,30 +32090,30 @@
       <c r="AA29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="9">
         <v>29.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="15">
         <v>2.0</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>130</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>9</v>
@@ -32179,30 +32137,30 @@
       <c r="AA30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="9">
         <v>30.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="15">
         <v>1.0</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>9</v>
@@ -32226,30 +32184,30 @@
       <c r="AA31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="9">
         <v>31.0</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="15">
-        <v>4.0</v>
+      <c r="B32" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="24">
+        <v>6.0</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="15">
         <v>201.0</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="23"/>
@@ -32271,30 +32229,30 @@
       <c r="AA32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="9">
         <v>32.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C33" s="15">
         <v>2.0</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="15">
         <v>201.0</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>9</v>
@@ -32318,30 +32276,30 @@
       <c r="AA33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="9">
         <v>33.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" s="15">
         <v>2.0</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G34" s="15">
         <v>201.0</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="23"/>
@@ -32363,30 +32321,30 @@
       <c r="AA34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="9">
         <v>34.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C35" s="15">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G35" s="15">
         <v>201.0</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="23"/>
@@ -32408,33 +32366,33 @@
       <c r="AA35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="9">
         <v>35.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C36" s="15">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G36" s="15">
         <v>201.0</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J36" s="13"/>
-      <c r="K36" s="23"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -32453,30 +32411,30 @@
       <c r="AA36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="9">
         <v>36.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C37" s="15">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G37" s="15">
         <v>201.0</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="22"/>
@@ -32498,30 +32456,30 @@
       <c r="AA37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="9">
         <v>37.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C38" s="15">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G38" s="15">
         <v>201.0</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="22"/>
@@ -32543,32 +32501,34 @@
       <c r="AA38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="9">
         <v>38.0</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="F39" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="G39" s="15">
         <v>201.0</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -32588,34 +32548,32 @@
       <c r="AA39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="15">
+      <c r="A40" s="9">
         <v>39.0</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C40" s="15">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G40" s="15">
         <v>201.0</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J40" s="13"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -32635,30 +32593,30 @@
       <c r="AA40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="9">
         <v>40.0</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C41" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="15">
-        <v>201.0</v>
+        <v>178</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="22"/>
@@ -32680,30 +32638,32 @@
       <c r="AA41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="15">
+      <c r="A42" s="9">
         <v>41.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C42" s="15">
         <v>1.0</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="I42" s="19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="22"/>
@@ -32725,33 +32685,31 @@
       <c r="AA42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="9">
         <v>42.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C43" s="15">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="I43" s="14"/>
       <c r="J43" s="13"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -32772,31 +32730,31 @@
       <c r="AA43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="9">
         <v>43.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C44" s="15">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="J44" s="13"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -32817,30 +32775,30 @@
       <c r="AA44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="9">
         <v>44.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C45" s="15">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="22"/>
@@ -32862,30 +32820,30 @@
       <c r="AA45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="15">
+      <c r="A46" s="9">
         <v>45.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C46" s="15">
         <v>1.0</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="22"/>
@@ -32907,32 +32865,16 @@
       <c r="AA46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="15">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J47" s="13"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -60530,35 +60472,6 @@
       <c r="Z998" s="22"/>
       <c r="AA998" s="22"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="17"/>
-      <c r="B999" s="17"/>
-      <c r="C999" s="17"/>
-      <c r="D999" s="17"/>
-      <c r="E999" s="34"/>
-      <c r="F999" s="17"/>
-      <c r="G999" s="17"/>
-      <c r="H999" s="17"/>
-      <c r="I999" s="35"/>
-      <c r="J999" s="17"/>
-      <c r="K999" s="22"/>
-      <c r="L999" s="22"/>
-      <c r="M999" s="22"/>
-      <c r="N999" s="22"/>
-      <c r="O999" s="22"/>
-      <c r="P999" s="22"/>
-      <c r="Q999" s="22"/>
-      <c r="R999" s="22"/>
-      <c r="S999" s="22"/>
-      <c r="T999" s="22"/>
-      <c r="U999" s="22"/>
-      <c r="V999" s="22"/>
-      <c r="W999" s="22"/>
-      <c r="X999" s="22"/>
-      <c r="Y999" s="22"/>
-      <c r="Z999" s="22"/>
-      <c r="AA999" s="22"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.393055555555556" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.393055555555556"/>
